--- a/data/trans_orig/P36B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E58D2B-A5CB-45A6-89F9-83A8144D2653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC91112-CAB8-4B7A-85CD-871042433B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D225FA6-4B42-4B09-A4E5-B9E360C5689E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C404EF15-B12F-4C5A-8EA3-22F217E34980}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,2536 +76,2536 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>10,06%</t>
   </si>
 </sst>
 </file>
@@ -3017,7 +3017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDC47EE-DCD6-459C-8792-C8306B6E149F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7CED23-2FD7-41ED-AB6B-D00461E3B0FC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3605,10 +3605,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -3617,13 +3617,13 @@
         <v>156923</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3632,13 +3632,13 @@
         <v>406706</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3653,13 @@
         <v>184851</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -3668,13 +3668,13 @@
         <v>49126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -3683,13 +3683,13 @@
         <v>233978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,7 +3745,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3757,13 +3757,13 @@
         <v>25926</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -3772,13 +3772,13 @@
         <v>45831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3787,13 +3787,13 @@
         <v>71756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3808,13 @@
         <v>57025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -3823,13 +3823,13 @@
         <v>110822</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -3838,13 +3838,13 @@
         <v>167846</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3859,13 @@
         <v>207144</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>306</v>
@@ -3874,13 +3874,13 @@
         <v>319931</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>505</v>
@@ -3889,13 +3889,13 @@
         <v>527074</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3910,13 @@
         <v>196138</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -3925,13 +3925,13 @@
         <v>154498</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>336</v>
@@ -3940,13 +3940,13 @@
         <v>350636</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3961,13 @@
         <v>150841</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -3976,13 +3976,13 @@
         <v>57531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -3991,13 +3991,13 @@
         <v>208373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4065,13 +4065,13 @@
         <v>14286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -4080,13 +4080,13 @@
         <v>35283</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4095,13 +4095,13 @@
         <v>49569</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4116,13 @@
         <v>75181</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>84</v>
@@ -4131,13 +4131,13 @@
         <v>87383</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>150</v>
@@ -4146,13 +4146,13 @@
         <v>162564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4167,13 @@
         <v>153199</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4182,13 +4182,13 @@
         <v>220543</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>360</v>
@@ -4197,13 +4197,13 @@
         <v>373742</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4218,13 @@
         <v>168554</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -4233,13 +4233,13 @@
         <v>136891</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>289</v>
@@ -4248,13 +4248,13 @@
         <v>305446</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4269,13 @@
         <v>107015</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -4284,13 +4284,13 @@
         <v>35541</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -4299,13 +4299,13 @@
         <v>142556</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4361,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4373,13 +4373,13 @@
         <v>22300</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -4388,13 +4388,13 @@
         <v>44833</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -4406,10 +4406,10 @@
         <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>64419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -4439,13 +4439,13 @@
         <v>63804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>128</v>
@@ -4454,13 +4454,13 @@
         <v>128223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>131111</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>159</v>
@@ -4490,13 +4490,13 @@
         <v>162741</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>288</v>
@@ -4505,7 +4505,7 @@
         <v>293853</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>218</v>
@@ -4547,7 +4547,7 @@
         <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>219</v>
@@ -4559,10 +4559,10 @@
         <v>80</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4577,13 @@
         <v>53279</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -4592,13 +4592,13 @@
         <v>26697</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -4607,13 +4607,13 @@
         <v>79976</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,10 +4837,10 @@
         <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>119</v>
@@ -4849,13 +4849,13 @@
         <v>121442</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>231</v>
@@ -4864,13 +4864,13 @@
         <v>228435</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4885,13 @@
         <v>52875</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="H38" s="7">
         <v>70</v>
@@ -4900,13 +4900,13 @@
         <v>72440</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>127</v>
@@ -4915,13 +4915,13 @@
         <v>125316</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4989,13 @@
         <v>171703</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>266</v>
@@ -5004,13 +5004,13 @@
         <v>276358</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>426</v>
@@ -5019,13 +5019,13 @@
         <v>448061</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5040,13 @@
         <v>381950</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H41" s="7">
         <v>554</v>
@@ -5055,13 +5055,13 @@
         <v>574543</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>929</v>
@@ -5070,13 +5070,13 @@
         <v>956492</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,16 +5088,16 @@
         <v>1005</v>
       </c>
       <c r="D42" s="7">
-        <v>1023584</v>
+        <v>1023585</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>1347</v>
@@ -5106,13 +5106,13 @@
         <v>1388027</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M42" s="7">
         <v>2352</v>
@@ -5121,13 +5121,13 @@
         <v>2411611</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,10 +5142,10 @@
         <v>1000941</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>308</v>
@@ -5157,13 +5157,13 @@
         <v>808686</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M43" s="7">
         <v>1773</v>
@@ -5172,13 +5172,13 @@
         <v>1809627</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5193,13 @@
         <v>690777</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>323</v>
@@ -5208,13 +5208,13 @@
         <v>321716</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>1014</v>
@@ -5223,13 +5223,13 @@
         <v>1012493</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5241,7 @@
         <v>3207</v>
       </c>
       <c r="D45" s="7">
-        <v>3268954</v>
+        <v>3268955</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -5271,7 +5271,7 @@
         <v>6494</v>
       </c>
       <c r="N45" s="7">
-        <v>6638285</v>
+        <v>6638284</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EF451D-6629-48C6-B457-9871E2E12A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CE1D47-D1A9-4674-A80D-EC47D631F176}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5324,7 +5324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5431,13 +5431,13 @@
         <v>18895</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -5446,13 +5446,13 @@
         <v>26924</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5461,13 +5461,13 @@
         <v>45819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5482,13 @@
         <v>51835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -5497,13 +5497,13 @@
         <v>86463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -5512,13 +5512,13 @@
         <v>138298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5533,13 @@
         <v>110684</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>126</v>
@@ -5548,13 +5548,13 @@
         <v>128983</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>236</v>
@@ -5563,13 +5563,13 @@
         <v>239668</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5584,13 @@
         <v>152262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -5599,13 +5599,13 @@
         <v>118882</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -5614,7 +5614,7 @@
         <v>271144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>356</v>
@@ -5656,7 +5656,7 @@
         <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -5665,7 +5665,7 @@
         <v>186391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>364</v>
@@ -5742,10 +5742,10 @@
         <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5754,13 +5754,13 @@
         <v>51796</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -5769,13 +5769,13 @@
         <v>92415</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,7 +5790,7 @@
         <v>107292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>373</v>
@@ -5811,7 +5811,7 @@
         <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
@@ -5820,13 +5820,13 @@
         <v>257531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,10 +5841,10 @@
         <v>210654</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>382</v>
@@ -5898,7 +5898,7 @@
         <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -5913,7 +5913,7 @@
         <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -5922,13 +5922,13 @@
         <v>371258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5943,13 @@
         <v>115320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -5958,13 +5958,13 @@
         <v>58203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -5973,13 +5973,13 @@
         <v>173523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6035,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6047,13 @@
         <v>34351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6062,13 +6062,13 @@
         <v>57221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -6077,13 +6077,13 @@
         <v>91572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6098,13 @@
         <v>128746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -6113,13 +6113,13 @@
         <v>173839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -6128,13 +6128,13 @@
         <v>302585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6149,13 @@
         <v>211051</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
@@ -6164,13 +6164,13 @@
         <v>238765</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>425</v>
@@ -6179,13 +6179,13 @@
         <v>449817</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6200,13 @@
         <v>211628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -6215,13 +6215,13 @@
         <v>157557</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
@@ -6230,13 +6230,13 @@
         <v>369186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6251,13 @@
         <v>92858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -6266,13 +6266,13 @@
         <v>82279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -6281,13 +6281,13 @@
         <v>175137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +6343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6355,13 +6355,13 @@
         <v>39609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -6370,13 +6370,13 @@
         <v>61576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -6385,13 +6385,13 @@
         <v>101185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6406,13 @@
         <v>119115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>163</v>
@@ -6421,13 +6421,13 @@
         <v>182870</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>269</v>
@@ -6436,13 +6436,13 @@
         <v>301985</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6457,13 @@
         <v>177281</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H24" s="7">
         <v>170</v>
@@ -6472,13 +6472,13 @@
         <v>194648</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>333</v>
@@ -6487,7 +6487,7 @@
         <v>371929</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>463</v>
@@ -6511,10 +6511,10 @@
         <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -6523,13 +6523,13 @@
         <v>114516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -6538,13 +6538,13 @@
         <v>293901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,7 +6559,7 @@
         <v>97082</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>472</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>473</v>
@@ -6577,10 +6577,10 @@
         <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -6589,13 +6589,13 @@
         <v>152402</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +6651,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6666,10 +6666,10 @@
         <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>289</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -6678,13 +6678,13 @@
         <v>65172</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -6693,13 +6693,13 @@
         <v>108541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6714,13 @@
         <v>104749</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -6729,13 +6729,13 @@
         <v>131763</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>215</v>
@@ -6744,13 +6744,13 @@
         <v>236512</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6765,13 @@
         <v>143165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H30" s="7">
         <v>135</v>
@@ -6780,13 +6780,13 @@
         <v>151384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M30" s="7">
         <v>270</v>
@@ -6795,13 +6795,13 @@
         <v>294549</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>503</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6816,13 @@
         <v>96181</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -6831,13 +6831,13 @@
         <v>65589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M31" s="7">
         <v>149</v>
@@ -6846,13 +6846,13 @@
         <v>161770</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6867,13 @@
         <v>39609</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>512</v>
+        <v>410</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6882,13 +6882,13 @@
         <v>30801</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -6897,13 +6897,13 @@
         <v>70410</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6971,13 @@
         <v>63042</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H34" s="7">
         <v>125</v>
@@ -6986,13 +6986,13 @@
         <v>135791</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>271</v>
+        <v>527</v>
       </c>
       <c r="M34" s="7">
         <v>185</v>
@@ -7001,13 +7001,13 @@
         <v>198833</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>164</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7022,13 @@
         <v>187347</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H35" s="7">
         <v>224</v>
@@ -7037,13 +7037,13 @@
         <v>235853</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>532</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>389</v>
@@ -7052,7 +7052,7 @@
         <v>423200</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>533</v>
+        <v>173</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>534</v>
@@ -7106,10 +7106,10 @@
         <v>542</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7124,13 @@
         <v>85334</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
@@ -7139,13 +7139,13 @@
         <v>82624</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M37" s="7">
         <v>152</v>
@@ -7154,10 +7154,10 @@
         <v>167958</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>551</v>
@@ -7178,10 +7178,10 @@
         <v>552</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>441</v>
+        <v>553</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -7190,13 +7190,13 @@
         <v>45842</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>441</v>
+        <v>553</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M38" s="7">
         <v>76</v>
@@ -7205,13 +7205,13 @@
         <v>82245</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>558</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7279,13 @@
         <v>239885</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H40" s="7">
         <v>363</v>
@@ -7294,13 +7294,13 @@
         <v>398481</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M40" s="7">
         <v>583</v>
@@ -7309,13 +7309,13 @@
         <v>638365</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7330,13 @@
         <v>699084</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>210</v>
+        <v>568</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H41" s="7">
         <v>899</v>
@@ -7345,13 +7345,13 @@
         <v>961028</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>566</v>
+        <v>167</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="M41" s="7">
         <v>1534</v>
@@ -7360,13 +7360,13 @@
         <v>1660112</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>52</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7381,13 @@
         <v>1033464</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H42" s="7">
         <v>1044</v>
@@ -7396,28 +7396,28 @@
         <v>1135323</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="M42" s="7">
         <v>2025</v>
       </c>
       <c r="N42" s="7">
-        <v>2168788</v>
+        <v>2168787</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7432,13 @@
         <v>934809</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>456</v>
+        <v>584</v>
       </c>
       <c r="H43" s="7">
         <v>656</v>
@@ -7447,13 +7447,13 @@
         <v>700408</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>207</v>
+        <v>585</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M43" s="7">
         <v>1535</v>
@@ -7462,13 +7462,13 @@
         <v>1635217</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>468</v>
+        <v>589</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7483,13 @@
         <v>500795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="H44" s="7">
         <v>316</v>
@@ -7498,28 +7498,28 @@
         <v>339314</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M44" s="7">
         <v>793</v>
       </c>
       <c r="N44" s="7">
-        <v>840109</v>
+        <v>840108</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,7 +7561,7 @@
         <v>6470</v>
       </c>
       <c r="N45" s="7">
-        <v>6942591</v>
+        <v>6942590</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7597,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AF7D2C-3E0D-4E08-A6D1-69D3C08F1477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D61DD7-9AC8-42E6-9B6A-CC818D165528}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7614,7 +7614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7721,13 +7721,13 @@
         <v>15066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -7736,13 +7736,13 @@
         <v>24391</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>606</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7751,13 +7751,13 @@
         <v>39457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7772,13 @@
         <v>48899</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>609</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -7787,13 +7787,13 @@
         <v>64736</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -7802,13 +7802,13 @@
         <v>113634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7823,13 @@
         <v>137337</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="H6" s="7">
         <v>132</v>
@@ -7838,13 +7838,13 @@
         <v>130349</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="M6" s="7">
         <v>260</v>
@@ -7853,13 +7853,13 @@
         <v>267686</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7874,13 @@
         <v>153580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H7" s="7">
         <v>130</v>
@@ -7889,13 +7889,13 @@
         <v>126968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>622</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -7904,13 +7904,13 @@
         <v>280547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7925,13 @@
         <v>64582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>637</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -7940,13 +7940,13 @@
         <v>48286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -7955,13 +7955,13 @@
         <v>112867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8029,13 @@
         <v>33211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -8044,13 +8044,13 @@
         <v>38637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>638</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -8062,10 +8062,10 @@
         <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8080,13 @@
         <v>77339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -8095,13 +8095,13 @@
         <v>111053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -8110,13 +8110,13 @@
         <v>188392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8131,13 @@
         <v>224079</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="H12" s="7">
         <v>235</v>
@@ -8146,13 +8146,13 @@
         <v>224262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="M12" s="7">
         <v>447</v>
@@ -8161,13 +8161,13 @@
         <v>448341</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8182,13 @@
         <v>180990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -8197,13 +8197,13 @@
         <v>142642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>673</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
@@ -8212,13 +8212,13 @@
         <v>323631</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>664</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,13 +8233,13 @@
         <v>72838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>666</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>667</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -8248,13 +8248,13 @@
         <v>46951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>555</v>
+        <v>675</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>119</v>
@@ -8263,13 +8263,13 @@
         <v>119789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8337,13 +8337,13 @@
         <v>38337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>682</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -8352,13 +8352,13 @@
         <v>44952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -8367,13 +8367,13 @@
         <v>83289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>676</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8388,13 @@
         <v>100650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -8403,13 +8403,13 @@
         <v>122129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>681</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>682</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -8418,13 +8418,13 @@
         <v>222779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>692</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +8439,13 @@
         <v>276576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="H18" s="7">
         <v>280</v>
@@ -8454,13 +8454,13 @@
         <v>279716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="M18" s="7">
         <v>545</v>
@@ -8469,13 +8469,13 @@
         <v>556292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8490,13 @@
         <v>180479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -8505,13 +8505,13 @@
         <v>153491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>708</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -8520,13 +8520,13 @@
         <v>333970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>709</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>701</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8541,13 @@
         <v>69810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>702</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -8556,13 +8556,13 @@
         <v>59002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>591</v>
+        <v>714</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -8571,13 +8571,13 @@
         <v>128812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>706</v>
+        <v>519</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,7 +8633,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8645,13 +8645,13 @@
         <v>32808</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>710</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8660,13 +8660,13 @@
         <v>54211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>712</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -8675,13 +8675,13 @@
         <v>87020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,13 +8696,13 @@
         <v>105524</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>717</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -8711,13 +8711,13 @@
         <v>140805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>720</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>721</v>
+        <v>573</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -8726,13 +8726,13 @@
         <v>246330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>725</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>722</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,13 +8747,13 @@
         <v>257990</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H24" s="7">
         <v>225</v>
@@ -8762,13 +8762,13 @@
         <v>239998</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>731</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="M24" s="7">
         <v>457</v>
@@ -8777,13 +8777,13 @@
         <v>497988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8798,13 @@
         <v>166869</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -8813,13 +8813,13 @@
         <v>156901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -8828,13 +8828,13 @@
         <v>323770</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,13 +8849,13 @@
         <v>79835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>742</v>
+        <v>528</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -8864,13 +8864,13 @@
         <v>53031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>745</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -8879,13 +8879,13 @@
         <v>132866</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>748</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,7 +8941,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8953,13 +8953,13 @@
         <v>31609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>328</v>
+        <v>751</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -8968,13 +8968,13 @@
         <v>51795</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -8983,13 +8983,13 @@
         <v>83404</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +9004,13 @@
         <v>99149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>758</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>757</v>
+        <v>269</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
@@ -9019,13 +9019,13 @@
         <v>131774</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>760</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>203</v>
@@ -9040,7 +9040,7 @@
         <v>762</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,7 +9055,7 @@
         <v>184823</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>763</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>764</v>
@@ -9073,10 +9073,10 @@
         <v>766</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>301</v>
+        <v>767</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M30" s="7">
         <v>326</v>
@@ -9085,13 +9085,13 @@
         <v>369295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,13 +9106,13 @@
         <v>108767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>772</v>
+        <v>251</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>660</v>
+        <v>773</v>
       </c>
       <c r="H31" s="7">
         <v>89</v>
@@ -9121,13 +9121,13 @@
         <v>101290</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>487</v>
+        <v>774</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -9136,13 +9136,13 @@
         <v>210057</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +9157,13 @@
         <v>51377</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>780</v>
+        <v>591</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -9172,7 +9172,7 @@
         <v>26360</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>781</v>
+        <v>13</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>782</v>
@@ -9187,7 +9187,7 @@
         <v>77737</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>368</v>
+        <v>559</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>784</v>
@@ -9276,13 +9276,13 @@
         <v>110117</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>607</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>790</v>
+        <v>101</v>
       </c>
       <c r="M34" s="7">
         <v>166</v>
@@ -9291,7 +9291,7 @@
         <v>176195</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>592</v>
+        <v>790</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>791</v>
@@ -9345,10 +9345,10 @@
         <v>799</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>569</v>
+        <v>800</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,13 +9363,13 @@
         <v>225608</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H36" s="7">
         <v>234</v>
@@ -9378,13 +9378,13 @@
         <v>277868</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M36" s="7">
         <v>473</v>
@@ -9393,13 +9393,13 @@
         <v>503477</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>611</v>
+        <v>808</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,13 +9414,13 @@
         <v>135504</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>809</v>
+        <v>392</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H37" s="7">
         <v>113</v>
@@ -9429,13 +9429,13 @@
         <v>136727</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>813</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>814</v>
       </c>
       <c r="M37" s="7">
         <v>254</v>
@@ -9444,13 +9444,13 @@
         <v>272231</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>816</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9465,13 +9465,13 @@
         <v>41759</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>403</v>
+        <v>817</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -9501,7 +9501,7 @@
         <v>823</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>824</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9569,13 @@
         <v>217108</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>826</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>827</v>
+        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>298</v>
@@ -9584,13 +9584,13 @@
         <v>324104</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>828</v>
+        <v>329</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>826</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>406</v>
+        <v>827</v>
       </c>
       <c r="M40" s="7">
         <v>498</v>
@@ -9599,13 +9599,13 @@
         <v>541213</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>830</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,13 +9620,13 @@
         <v>553076</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>832</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>833</v>
       </c>
       <c r="H41" s="7">
         <v>739</v>
@@ -9635,13 +9635,13 @@
         <v>793479</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>310</v>
+        <v>589</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>834</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M41" s="7">
         <v>1274</v>
@@ -9650,13 +9650,13 @@
         <v>1346555</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>718</v>
+        <v>835</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>836</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9674,10 +9674,10 @@
         <v>837</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H42" s="7">
         <v>1267</v>
@@ -9686,13 +9686,13 @@
         <v>1336665</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M42" s="7">
         <v>2508</v>
@@ -9701,13 +9701,13 @@
         <v>2643077</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9725,10 +9725,10 @@
         <v>844</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>731</v>
+        <v>845</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>845</v>
+        <v>351</v>
       </c>
       <c r="H43" s="7">
         <v>771</v>
@@ -9743,7 +9743,7 @@
         <v>847</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>583</v>
+        <v>848</v>
       </c>
       <c r="M43" s="7">
         <v>1657</v>
@@ -9752,13 +9752,13 @@
         <v>1744207</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>848</v>
+        <v>795</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>849</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9776,7 +9776,7 @@
         <v>850</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>851</v>
@@ -9791,10 +9791,10 @@
         <v>852</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>853</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M44" s="7">
         <v>612</v>
@@ -9803,10 +9803,10 @@
         <v>641929</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>675</v>
+        <v>854</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>854</v>
+        <v>757</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>855</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC91112-CAB8-4B7A-85CD-871042433B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{745EBBF8-DC96-4A20-9962-9692008CFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C404EF15-B12F-4C5A-8EA3-22F217E34980}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{91E50ED4-9DEF-4744-945F-141C996C892C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="968">
   <si>
     <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,88%</t>
@@ -352,7 +352,7 @@
     <t>19,32%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -487,7 +487,7 @@
     <t>17,95%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,76%</t>
@@ -619,7 +619,7 @@
     <t>16,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,79%</t>
@@ -745,1851 +745,2190 @@
     <t>8,48%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>14,38%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
     <t>11,24%</t>
   </si>
   <si>
@@ -2600,9 +2939,6 @@
   </si>
   <si>
     <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
   </si>
   <si>
     <t>10,06%</t>
@@ -3017,8 +3353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7CED23-2FD7-41ED-AB6B-D00461E3B0FC}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2583B3CD-7E48-432B-BB84-D87F767D93DF}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4675,10 +5011,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D34" s="7">
-        <v>56823</v>
+        <v>29191</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>236</v>
@@ -4687,37 +5023,37 @@
         <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="7">
+        <v>42</v>
+      </c>
+      <c r="I34" s="7">
+        <v>39273</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H34" s="7">
-        <v>80</v>
-      </c>
-      <c r="I34" s="7">
-        <v>81426</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>71</v>
+      </c>
+      <c r="N34" s="7">
+        <v>68464</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M34" s="7">
-        <v>135</v>
-      </c>
-      <c r="N34" s="7">
-        <v>138249</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +5062,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D35" s="7">
-        <v>88352</v>
+        <v>52293</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>71</v>
+      </c>
+      <c r="I35" s="7">
+        <v>65431</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H35" s="7">
-        <v>133</v>
-      </c>
-      <c r="I35" s="7">
-        <v>137413</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>125</v>
+      </c>
+      <c r="N35" s="7">
+        <v>117723</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M35" s="7">
-        <v>226</v>
-      </c>
-      <c r="N35" s="7">
-        <v>225765</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +5113,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="D36" s="7">
-        <v>196654</v>
+        <v>116807</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>153</v>
+      </c>
+      <c r="I36" s="7">
+        <v>142117</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H36" s="7">
+      <c r="K36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I36" s="7">
-        <v>263139</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>274</v>
+      </c>
+      <c r="N36" s="7">
+        <v>258924</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M36" s="7">
-        <v>463</v>
-      </c>
-      <c r="N36" s="7">
-        <v>459792</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,25 +5164,25 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D37" s="7">
-        <v>106993</v>
+        <v>68604</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>264</v>
       </c>
       <c r="H37" s="7">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I37" s="7">
-        <v>121442</v>
+        <v>65200</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>265</v>
@@ -4858,10 +5194,10 @@
         <v>267</v>
       </c>
       <c r="M37" s="7">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="N37" s="7">
-        <v>228435</v>
+        <v>133805</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>268</v>
@@ -4879,25 +5215,25 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D38" s="7">
-        <v>52875</v>
+        <v>24919</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="H38" s="7">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I38" s="7">
-        <v>72440</v>
+        <v>29932</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>273</v>
@@ -4909,19 +5245,19 @@
         <v>275</v>
       </c>
       <c r="M38" s="7">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="N38" s="7">
-        <v>125316</v>
+        <v>54851</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,10 +5266,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D39" s="7">
-        <v>501697</v>
+        <v>291814</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4945,10 +5281,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="I39" s="7">
-        <v>675860</v>
+        <v>341952</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4960,10 +5296,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1182</v>
+        <v>672</v>
       </c>
       <c r="N39" s="7">
-        <v>1177557</v>
+        <v>633766</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4977,16 +5313,16 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="D40" s="7">
-        <v>171703</v>
+        <v>27632</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>279</v>
@@ -4998,10 +5334,10 @@
         <v>281</v>
       </c>
       <c r="H40" s="7">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="I40" s="7">
-        <v>276358</v>
+        <v>42154</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>282</v>
@@ -5013,10 +5349,10 @@
         <v>284</v>
       </c>
       <c r="M40" s="7">
-        <v>426</v>
+        <v>64</v>
       </c>
       <c r="N40" s="7">
-        <v>448061</v>
+        <v>69786</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>285</v>
@@ -5034,10 +5370,10 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>375</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7">
-        <v>381950</v>
+        <v>36059</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>288</v>
@@ -5049,10 +5385,10 @@
         <v>290</v>
       </c>
       <c r="H41" s="7">
-        <v>554</v>
+        <v>62</v>
       </c>
       <c r="I41" s="7">
-        <v>574543</v>
+        <v>71982</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>291</v>
@@ -5064,10 +5400,10 @@
         <v>293</v>
       </c>
       <c r="M41" s="7">
-        <v>929</v>
+        <v>101</v>
       </c>
       <c r="N41" s="7">
-        <v>956492</v>
+        <v>108041</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>294</v>
@@ -5085,49 +5421,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1005</v>
+        <v>84</v>
       </c>
       <c r="D42" s="7">
-        <v>1023585</v>
+        <v>79847</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>105</v>
+      </c>
+      <c r="I42" s="7">
+        <v>121022</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H42" s="7">
-        <v>1347</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1388027</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>189</v>
+      </c>
+      <c r="N42" s="7">
+        <v>200869</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="M42" s="7">
-        <v>2352</v>
-      </c>
-      <c r="N42" s="7">
-        <v>2411611</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,28 +5472,28 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>976</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7">
-        <v>1000941</v>
+        <v>38389</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>48</v>
+      </c>
+      <c r="I43" s="7">
+        <v>56242</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="H43" s="7">
-        <v>797</v>
-      </c>
-      <c r="I43" s="7">
-        <v>808686</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>309</v>
@@ -5166,10 +5502,10 @@
         <v>310</v>
       </c>
       <c r="M43" s="7">
-        <v>1773</v>
+        <v>89</v>
       </c>
       <c r="N43" s="7">
-        <v>1809627</v>
+        <v>94631</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>311</v>
@@ -5187,10 +5523,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>691</v>
+        <v>30</v>
       </c>
       <c r="D44" s="7">
-        <v>690777</v>
+        <v>27956</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>314</v>
@@ -5202,25 +5538,25 @@
         <v>316</v>
       </c>
       <c r="H44" s="7">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="I44" s="7">
-        <v>321716</v>
+        <v>42508</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
-        <v>1014</v>
+        <v>67</v>
       </c>
       <c r="N44" s="7">
-        <v>1012493</v>
+        <v>70465</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>319</v>
@@ -5238,63 +5574,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>160</v>
+      </c>
+      <c r="D46" s="7">
+        <v>171703</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="7">
+        <v>266</v>
+      </c>
+      <c r="I46" s="7">
+        <v>276358</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" s="7">
+        <v>426</v>
+      </c>
+      <c r="N46" s="7">
+        <v>448061</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>375</v>
+      </c>
+      <c r="D47" s="7">
+        <v>381950</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="7">
+        <v>554</v>
+      </c>
+      <c r="I47" s="7">
+        <v>574543</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="7">
+        <v>929</v>
+      </c>
+      <c r="N47" s="7">
+        <v>956492</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1023585</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1347</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1388027</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2352</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2411611</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>976</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1000941</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H49" s="7">
+        <v>797</v>
+      </c>
+      <c r="I49" s="7">
+        <v>808686</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1773</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1809627</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>691</v>
+      </c>
+      <c r="D50" s="7">
+        <v>690777</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H50" s="7">
+        <v>323</v>
+      </c>
+      <c r="I50" s="7">
+        <v>321716</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1014</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1012493</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3207</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3268955</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3287</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3369330</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6494</v>
       </c>
-      <c r="N45" s="7">
-        <v>6638284</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>322</v>
+      <c r="N51" s="7">
+        <v>6638285</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5307,8 +5952,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CE1D47-D1A9-4674-A80D-EC47D631F176}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2347212-BB4B-492F-93E5-AF9463119C0A}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5324,7 +5969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5431,13 +6076,13 @@
         <v>18895</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -5446,13 +6091,13 @@
         <v>26924</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5461,13 +6106,13 @@
         <v>45819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +6127,13 @@
         <v>51835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -5497,13 +6142,13 @@
         <v>86463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -5512,13 +6157,13 @@
         <v>138298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +6178,13 @@
         <v>110684</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>126</v>
@@ -5548,13 +6193,13 @@
         <v>128983</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>236</v>
@@ -5563,13 +6208,13 @@
         <v>239668</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +6229,13 @@
         <v>152262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -5599,13 +6244,13 @@
         <v>118882</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -5617,10 +6262,10 @@
         <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +6280,13 @@
         <v>119523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -5650,10 +6295,10 @@
         <v>66868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>136</v>
@@ -5665,13 +6310,13 @@
         <v>186391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +6384,13 @@
         <v>40618</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5754,13 +6399,13 @@
         <v>51796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -5769,13 +6414,13 @@
         <v>92415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +6435,13 @@
         <v>107292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -5805,13 +6450,13 @@
         <v>150239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
@@ -5820,13 +6465,13 @@
         <v>257531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +6486,13 @@
         <v>210654</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -5856,13 +6501,13 @@
         <v>187729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>378</v>
@@ -5871,13 +6516,13 @@
         <v>398383</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,10 +6537,10 @@
         <v>210018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>212</v>
@@ -5907,13 +6552,13 @@
         <v>161240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -5922,13 +6567,13 @@
         <v>371258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +6588,13 @@
         <v>115320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -5961,10 +6606,10 @@
         <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -5976,10 +6621,10 @@
         <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6692,13 @@
         <v>34351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6062,13 +6707,13 @@
         <v>57221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -6077,13 +6722,13 @@
         <v>91572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6743,13 @@
         <v>128746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -6113,13 +6758,13 @@
         <v>173839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -6134,7 +6779,7 @@
         <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6794,13 @@
         <v>211051</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
@@ -6164,13 +6809,13 @@
         <v>238765</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>425</v>
@@ -6179,13 +6824,13 @@
         <v>449817</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,10 +6848,10 @@
         <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -6215,13 +6860,13 @@
         <v>157557</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
@@ -6230,10 +6875,10 @@
         <v>369186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>124</v>
@@ -6251,13 +6896,13 @@
         <v>92858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -6266,13 +6911,13 @@
         <v>82279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -6281,13 +6926,13 @@
         <v>175137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +7000,13 @@
         <v>39609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -6370,13 +7015,13 @@
         <v>61576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -6385,13 +7030,13 @@
         <v>101185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,10 +7054,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>163</v>
@@ -6421,13 +7066,13 @@
         <v>182870</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>269</v>
@@ -6436,13 +7081,13 @@
         <v>301985</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +7102,13 @@
         <v>177281</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>170</v>
@@ -6472,13 +7117,13 @@
         <v>194648</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>333</v>
@@ -6490,10 +7135,10 @@
         <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +7153,13 @@
         <v>179385</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -6523,13 +7168,13 @@
         <v>114516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -6538,13 +7183,13 @@
         <v>293901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +7204,13 @@
         <v>97082</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -6574,13 +7219,13 @@
         <v>55320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>201</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -6589,13 +7234,13 @@
         <v>152402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +7308,13 @@
         <v>43369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -6678,13 +7323,13 @@
         <v>65172</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -6693,13 +7338,13 @@
         <v>108541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +7359,13 @@
         <v>104749</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -6729,13 +7374,13 @@
         <v>131763</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="M29" s="7">
         <v>215</v>
@@ -6744,13 +7389,13 @@
         <v>236512</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +7410,13 @@
         <v>143165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="H30" s="7">
         <v>135</v>
@@ -6780,13 +7425,13 @@
         <v>151384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="M30" s="7">
         <v>270</v>
@@ -6795,13 +7440,13 @@
         <v>294549</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +7461,13 @@
         <v>96181</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -6831,13 +7476,13 @@
         <v>65589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="M31" s="7">
         <v>149</v>
@@ -6846,13 +7491,13 @@
         <v>161770</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +7512,13 @@
         <v>39609</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6882,13 +7527,13 @@
         <v>30801</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -6897,13 +7542,13 @@
         <v>70410</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,49 +7610,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D34" s="7">
-        <v>63042</v>
+        <v>25922</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>523</v>
+        <v>411</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="H34" s="7">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="I34" s="7">
-        <v>135791</v>
+        <v>52528</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="M34" s="7">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="N34" s="7">
-        <v>198833</v>
+        <v>78450</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>164</v>
+        <v>568</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,49 +7661,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="D35" s="7">
-        <v>187347</v>
+        <v>94664</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="H35" s="7">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="I35" s="7">
-        <v>235853</v>
+        <v>103611</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>51</v>
+        <v>574</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>258</v>
+        <v>575</v>
       </c>
       <c r="M35" s="7">
-        <v>389</v>
+        <v>185</v>
       </c>
       <c r="N35" s="7">
-        <v>423200</v>
+        <v>198275</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>173</v>
+        <v>576</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,49 +7712,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7">
-        <v>180628</v>
+        <v>116714</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="H36" s="7">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="I36" s="7">
-        <v>233813</v>
+        <v>124466</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>540</v>
+        <v>227</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="M36" s="7">
-        <v>383</v>
+        <v>228</v>
       </c>
       <c r="N36" s="7">
-        <v>414442</v>
+        <v>241181</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>422</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,49 +7763,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7">
-        <v>85334</v>
+        <v>49901</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="H37" s="7">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="I37" s="7">
-        <v>82624</v>
+        <v>41384</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="M37" s="7">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="N37" s="7">
-        <v>167958</v>
+        <v>91284</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,49 +7814,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D38" s="7">
-        <v>36402</v>
+        <v>17735</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="H38" s="7">
+        <v>26</v>
+      </c>
+      <c r="I38" s="7">
+        <v>27032</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="M38" s="7">
         <v>42</v>
       </c>
-      <c r="I38" s="7">
-        <v>45842</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="M38" s="7">
-        <v>76</v>
-      </c>
       <c r="N38" s="7">
-        <v>82245</v>
+        <v>44767</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,10 +7865,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>498</v>
+        <v>278</v>
       </c>
       <c r="D39" s="7">
-        <v>552754</v>
+        <v>304937</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7235,10 +7880,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>687</v>
+        <v>340</v>
       </c>
       <c r="I39" s="7">
-        <v>733924</v>
+        <v>349020</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7250,10 +7895,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1185</v>
+        <v>618</v>
       </c>
       <c r="N39" s="7">
-        <v>1286678</v>
+        <v>653957</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7267,55 +7912,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="D40" s="7">
-        <v>239885</v>
+        <v>37119</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>107</v>
+        <v>604</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="H40" s="7">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="I40" s="7">
-        <v>398481</v>
+        <v>83264</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="M40" s="7">
-        <v>583</v>
+        <v>108</v>
       </c>
       <c r="N40" s="7">
-        <v>638365</v>
+        <v>120383</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>234</v>
+        <v>610</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>566</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,49 +7969,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>635</v>
+        <v>82</v>
       </c>
       <c r="D41" s="7">
-        <v>699084</v>
+        <v>92683</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>568</v>
+        <v>425</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="H41" s="7">
-        <v>899</v>
+        <v>122</v>
       </c>
       <c r="I41" s="7">
-        <v>961028</v>
+        <v>132242</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>347</v>
+        <v>613</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>570</v>
+        <v>614</v>
       </c>
       <c r="M41" s="7">
-        <v>1534</v>
+        <v>204</v>
       </c>
       <c r="N41" s="7">
-        <v>1660112</v>
+        <v>224925</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>573</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,49 +8020,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>981</v>
+        <v>57</v>
       </c>
       <c r="D42" s="7">
-        <v>1033464</v>
+        <v>63914</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>575</v>
+        <v>619</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="H42" s="7">
-        <v>1044</v>
+        <v>98</v>
       </c>
       <c r="I42" s="7">
-        <v>1135323</v>
+        <v>109347</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>577</v>
+        <v>264</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="M42" s="7">
-        <v>2025</v>
+        <v>155</v>
       </c>
       <c r="N42" s="7">
-        <v>2168787</v>
+        <v>173261</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>426</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,49 +8071,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>879</v>
+        <v>29</v>
       </c>
       <c r="D43" s="7">
-        <v>934809</v>
+        <v>35433</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="H43" s="7">
-        <v>656</v>
+        <v>37</v>
       </c>
       <c r="I43" s="7">
-        <v>700408</v>
+        <v>41241</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="M43" s="7">
-        <v>1535</v>
+        <v>66</v>
       </c>
       <c r="N43" s="7">
-        <v>1635217</v>
+        <v>76674</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>588</v>
+        <v>272</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,49 +8122,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>477</v>
+        <v>18</v>
       </c>
       <c r="D44" s="7">
-        <v>500795</v>
+        <v>18667</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
       <c r="H44" s="7">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I44" s="7">
-        <v>339314</v>
+        <v>18811</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>595</v>
+        <v>638</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
       <c r="M44" s="7">
-        <v>793</v>
+        <v>34</v>
       </c>
       <c r="N44" s="7">
-        <v>840108</v>
+        <v>37478</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,63 +8173,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>247817</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>347</v>
+      </c>
+      <c r="I45" s="7">
+        <v>384904</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>567</v>
+      </c>
+      <c r="N45" s="7">
+        <v>632721</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>220</v>
+      </c>
+      <c r="D46" s="7">
+        <v>239885</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="H46" s="7">
+        <v>363</v>
+      </c>
+      <c r="I46" s="7">
+        <v>398481</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="M46" s="7">
+        <v>583</v>
+      </c>
+      <c r="N46" s="7">
+        <v>638365</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>635</v>
+      </c>
+      <c r="D47" s="7">
+        <v>699084</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="H47" s="7">
+        <v>899</v>
+      </c>
+      <c r="I47" s="7">
+        <v>961028</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1534</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1660112</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>981</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1033464</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1044</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1135323</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2025</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2168788</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>879</v>
+      </c>
+      <c r="D49" s="7">
+        <v>934809</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H49" s="7">
+        <v>656</v>
+      </c>
+      <c r="I49" s="7">
+        <v>700408</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1535</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1635217</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>477</v>
+      </c>
+      <c r="D50" s="7">
+        <v>500795</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H50" s="7">
+        <v>316</v>
+      </c>
+      <c r="I50" s="7">
+        <v>339314</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="M50" s="7">
+        <v>793</v>
+      </c>
+      <c r="N50" s="7">
+        <v>840109</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3192</v>
       </c>
-      <c r="D45" s="7">
-        <v>3408036</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3408037</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3278</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3534554</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6470</v>
       </c>
-      <c r="N45" s="7">
-        <v>6942590</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>322</v>
+      <c r="N51" s="7">
+        <v>6942591</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7597,8 +8551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D61DD7-9AC8-42E6-9B6A-CC818D165528}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C04B0-B393-4193-A6C9-09C6338E3B66}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7614,7 +8568,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7721,13 +8675,13 @@
         <v>15066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -7736,13 +8690,13 @@
         <v>24391</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7751,13 +8705,13 @@
         <v>39457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>552</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +8726,13 @@
         <v>48899</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -7787,13 +8741,13 @@
         <v>64736</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -7802,13 +8756,13 @@
         <v>113634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +8777,13 @@
         <v>137337</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="H6" s="7">
         <v>132</v>
@@ -7838,13 +8792,13 @@
         <v>130349</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="M6" s="7">
         <v>260</v>
@@ -7853,13 +8807,13 @@
         <v>267686</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +8828,13 @@
         <v>153580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="H7" s="7">
         <v>130</v>
@@ -7889,13 +8843,13 @@
         <v>126968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -7904,13 +8858,13 @@
         <v>280547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +8879,13 @@
         <v>64582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>637</v>
+        <v>717</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -7940,13 +8894,13 @@
         <v>48286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>638</v>
+        <v>718</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -7955,13 +8909,13 @@
         <v>112867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8983,13 @@
         <v>33211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -8044,13 +8998,13 @@
         <v>38637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -8062,10 +9016,10 @@
         <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +9034,13 @@
         <v>77339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -8095,13 +9049,13 @@
         <v>111053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -8110,13 +9064,13 @@
         <v>188392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +9085,13 @@
         <v>224079</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="H12" s="7">
         <v>235</v>
@@ -8146,13 +9100,13 @@
         <v>224262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="M12" s="7">
         <v>447</v>
@@ -8161,13 +9115,13 @@
         <v>448341</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +9136,13 @@
         <v>180990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -8197,13 +9151,13 @@
         <v>142642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>672</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
@@ -8212,13 +9166,13 @@
         <v>323631</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,13 +9187,13 @@
         <v>72838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>551</v>
+        <v>753</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -8248,10 +9202,10 @@
         <v>46951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>73</v>
@@ -8263,13 +9217,13 @@
         <v>119789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +9291,13 @@
         <v>38337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -8352,13 +9306,13 @@
         <v>44952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -8367,13 +9321,13 @@
         <v>83289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +9342,13 @@
         <v>100650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -8403,13 +9357,13 @@
         <v>122129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>769</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -8418,13 +9372,13 @@
         <v>222779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +9393,13 @@
         <v>276576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="H18" s="7">
         <v>280</v>
@@ -8454,13 +9408,13 @@
         <v>279716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="M18" s="7">
         <v>545</v>
@@ -8469,13 +9423,13 @@
         <v>556292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>701</v>
+        <v>781</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>702</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +9444,13 @@
         <v>180479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>704</v>
+        <v>784</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -8505,13 +9459,13 @@
         <v>153491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>706</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>707</v>
+        <v>786</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>708</v>
+        <v>787</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -8520,13 +9474,13 @@
         <v>333970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>709</v>
+        <v>788</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>710</v>
+        <v>789</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,10 +9498,10 @@
         <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>711</v>
+        <v>790</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>712</v>
+        <v>791</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -8559,10 +9513,10 @@
         <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>713</v>
+        <v>792</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>714</v>
+        <v>793</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -8571,13 +9525,13 @@
         <v>128812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>715</v>
+        <v>794</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,7 +9573,7 @@
         <v>1298</v>
       </c>
       <c r="N21" s="7">
-        <v>1325142</v>
+        <v>1325143</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8645,13 +9599,13 @@
         <v>32808</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>717</v>
+        <v>796</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>718</v>
+        <v>797</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8660,13 +9614,13 @@
         <v>54211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>798</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>799</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -8675,10 +9629,10 @@
         <v>87020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>721</v>
+        <v>802</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>71</v>
@@ -8696,13 +9650,13 @@
         <v>105524</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>722</v>
+        <v>803</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>723</v>
+        <v>804</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -8711,13 +9665,13 @@
         <v>140805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>724</v>
+        <v>805</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -8726,13 +9680,13 @@
         <v>246330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>725</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,13 +9701,13 @@
         <v>257990</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>728</v>
+        <v>808</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
       <c r="H24" s="7">
         <v>225</v>
@@ -8762,13 +9716,13 @@
         <v>239998</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>730</v>
+        <v>810</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>732</v>
+        <v>812</v>
       </c>
       <c r="M24" s="7">
         <v>457</v>
@@ -8777,13 +9731,13 @@
         <v>497988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>735</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +9752,13 @@
         <v>166869</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -8813,13 +9767,13 @@
         <v>156901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -8828,13 +9782,13 @@
         <v>323770</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>742</v>
+        <v>822</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>743</v>
+        <v>823</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>744</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,13 +9803,13 @@
         <v>79835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>745</v>
+        <v>825</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>746</v>
+        <v>568</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>528</v>
+        <v>826</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -8864,10 +9818,10 @@
         <v>53031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>747</v>
+        <v>827</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>73</v>
@@ -8879,13 +9833,13 @@
         <v>132866</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,13 +9907,13 @@
         <v>31609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>751</v>
+        <v>831</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>752</v>
+        <v>832</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>753</v>
+        <v>833</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -8968,13 +9922,13 @@
         <v>51795</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>754</v>
+        <v>834</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>755</v>
+        <v>630</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>756</v>
+        <v>835</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -8983,13 +9937,13 @@
         <v>83404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>757</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>754</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +9958,13 @@
         <v>99149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>758</v>
+        <v>836</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>269</v>
+        <v>837</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>759</v>
+        <v>838</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
@@ -9019,13 +9973,13 @@
         <v>131774</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>760</v>
+        <v>577</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>203</v>
@@ -9034,13 +9988,13 @@
         <v>230922</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>761</v>
+        <v>839</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>762</v>
+        <v>840</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>763</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,10 +10012,10 @@
         <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>764</v>
+        <v>842</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>765</v>
+        <v>843</v>
       </c>
       <c r="H30" s="7">
         <v>161</v>
@@ -9070,13 +10024,13 @@
         <v>184472</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>767</v>
+        <v>845</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>768</v>
+        <v>846</v>
       </c>
       <c r="M30" s="7">
         <v>326</v>
@@ -9085,13 +10039,13 @@
         <v>369295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>769</v>
+        <v>847</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>770</v>
+        <v>848</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>771</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,13 +10060,13 @@
         <v>108767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>772</v>
+        <v>850</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>251</v>
+        <v>851</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>773</v>
+        <v>852</v>
       </c>
       <c r="H31" s="7">
         <v>89</v>
@@ -9121,13 +10075,13 @@
         <v>101290</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>774</v>
+        <v>853</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>775</v>
+        <v>854</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>776</v>
+        <v>855</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -9136,13 +10090,13 @@
         <v>210057</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>777</v>
+        <v>856</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>778</v>
+        <v>857</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>779</v>
+        <v>858</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +10111,13 @@
         <v>51377</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>780</v>
+        <v>241</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>781</v>
+        <v>859</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -9175,10 +10129,10 @@
         <v>13</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>782</v>
+        <v>860</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>783</v>
+        <v>861</v>
       </c>
       <c r="M32" s="7">
         <v>66</v>
@@ -9187,13 +10141,13 @@
         <v>77737</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>559</v>
+        <v>862</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>785</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9255,49 +10209,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D34" s="7">
-        <v>66078</v>
+        <v>31223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>786</v>
+        <v>864</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>787</v>
+        <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="H34" s="7">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I34" s="7">
-        <v>110117</v>
+        <v>45505</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>441</v>
+        <v>866</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>789</v>
+        <v>867</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>101</v>
+        <v>868</v>
       </c>
       <c r="M34" s="7">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="N34" s="7">
-        <v>176195</v>
+        <v>76729</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>790</v>
+        <v>869</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>791</v>
+        <v>870</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>792</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,49 +10260,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="D35" s="7">
-        <v>121514</v>
+        <v>59684</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>793</v>
+        <v>872</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>794</v>
+        <v>306</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>795</v>
+        <v>873</v>
       </c>
       <c r="H35" s="7">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="I35" s="7">
-        <v>222982</v>
+        <v>103900</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>796</v>
+        <v>874</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>797</v>
+        <v>875</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>798</v>
+        <v>876</v>
       </c>
       <c r="M35" s="7">
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="N35" s="7">
-        <v>344497</v>
+        <v>163584</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>799</v>
+        <v>877</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>800</v>
+        <v>878</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9357,49 +10311,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="D36" s="7">
-        <v>225608</v>
+        <v>134994</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>802</v>
+        <v>879</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>803</v>
+        <v>615</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>804</v>
+        <v>880</v>
       </c>
       <c r="H36" s="7">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="I36" s="7">
-        <v>277868</v>
+        <v>144447</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>805</v>
+        <v>881</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>806</v>
+        <v>882</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>807</v>
+        <v>883</v>
       </c>
       <c r="M36" s="7">
-        <v>473</v>
+        <v>266</v>
       </c>
       <c r="N36" s="7">
-        <v>503477</v>
+        <v>279441</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>808</v>
+        <v>884</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>809</v>
+        <v>885</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>810</v>
+        <v>886</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9408,49 +10362,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7">
-        <v>135504</v>
+        <v>78998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>392</v>
+        <v>887</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>811</v>
+        <v>888</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>812</v>
+        <v>656</v>
       </c>
       <c r="H37" s="7">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="I37" s="7">
-        <v>136727</v>
+        <v>68678</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>529</v>
+        <v>889</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>482</v>
+        <v>890</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="M37" s="7">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="N37" s="7">
-        <v>272231</v>
+        <v>147676</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>814</v>
+        <v>891</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>815</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>816</v>
+        <v>892</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9459,49 +10413,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7">
+        <v>29430</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="H38" s="7">
+        <v>14</v>
+      </c>
+      <c r="I38" s="7">
+        <v>15232</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="M38" s="7">
         <v>43</v>
       </c>
-      <c r="D38" s="7">
-        <v>41759</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="H38" s="7">
-        <v>24</v>
-      </c>
-      <c r="I38" s="7">
-        <v>28100</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="M38" s="7">
-        <v>67</v>
-      </c>
       <c r="N38" s="7">
-        <v>69858</v>
+        <v>44663</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>822</v>
+        <v>898</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>823</v>
+        <v>899</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>444</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9510,10 +10464,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>626</v>
+        <v>325</v>
       </c>
       <c r="D39" s="7">
-        <v>590463</v>
+        <v>334330</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9525,10 +10479,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>654</v>
+        <v>354</v>
       </c>
       <c r="I39" s="7">
-        <v>775794</v>
+        <v>377762</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9540,10 +10494,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1280</v>
+        <v>679</v>
       </c>
       <c r="N39" s="7">
-        <v>1366258</v>
+        <v>712092</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9557,55 +10511,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D40" s="7">
-        <v>217108</v>
+        <v>34854</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>824</v>
+        <v>900</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>825</v>
+        <v>490</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="H40" s="7">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="I40" s="7">
-        <v>324104</v>
+        <v>64612</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>329</v>
+        <v>901</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>826</v>
+        <v>902</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>827</v>
+        <v>903</v>
       </c>
       <c r="M40" s="7">
-        <v>498</v>
+        <v>92</v>
       </c>
       <c r="N40" s="7">
-        <v>541213</v>
+        <v>99466</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>828</v>
+        <v>904</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>829</v>
+        <v>905</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>830</v>
+        <v>906</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9614,49 +10568,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>535</v>
+        <v>72</v>
       </c>
       <c r="D41" s="7">
-        <v>553076</v>
+        <v>61830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>656</v>
+        <v>907</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>831</v>
+        <v>908</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="H41" s="7">
-        <v>739</v>
+        <v>89</v>
       </c>
       <c r="I41" s="7">
-        <v>793479</v>
+        <v>119083</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>589</v>
+        <v>910</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>833</v>
+        <v>911</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>834</v>
+        <v>912</v>
       </c>
       <c r="M41" s="7">
-        <v>1274</v>
+        <v>161</v>
       </c>
       <c r="N41" s="7">
-        <v>1346555</v>
+        <v>180913</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>835</v>
+        <v>913</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>836</v>
+        <v>914</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>774</v>
+        <v>915</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9665,49 +10619,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1241</v>
+        <v>109</v>
       </c>
       <c r="D42" s="7">
-        <v>1306412</v>
+        <v>90614</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>837</v>
+        <v>916</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>838</v>
+        <v>541</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>839</v>
+        <v>917</v>
       </c>
       <c r="H42" s="7">
-        <v>1267</v>
+        <v>98</v>
       </c>
       <c r="I42" s="7">
-        <v>1336665</v>
+        <v>133421</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>840</v>
+        <v>537</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>841</v>
+        <v>918</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>842</v>
+        <v>919</v>
       </c>
       <c r="M42" s="7">
-        <v>2508</v>
+        <v>207</v>
       </c>
       <c r="N42" s="7">
-        <v>2643077</v>
+        <v>224036</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>802</v>
+        <v>920</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>843</v>
+        <v>921</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>842</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9716,49 +10670,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>886</v>
+        <v>66</v>
       </c>
       <c r="D43" s="7">
-        <v>926188</v>
+        <v>56506</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>844</v>
+        <v>923</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>845</v>
+        <v>924</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>351</v>
+        <v>925</v>
       </c>
       <c r="H43" s="7">
-        <v>771</v>
+        <v>51</v>
       </c>
       <c r="I43" s="7">
-        <v>818019</v>
+        <v>68049</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>846</v>
+        <v>926</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>848</v>
+        <v>928</v>
       </c>
       <c r="M43" s="7">
-        <v>1657</v>
+        <v>117</v>
       </c>
       <c r="N43" s="7">
-        <v>1744207</v>
+        <v>124555</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>795</v>
+        <v>930</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9767,49 +10721,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="D44" s="7">
-        <v>380201</v>
+        <v>12328</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>850</v>
+        <v>931</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>479</v>
+        <v>932</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>851</v>
+        <v>99</v>
       </c>
       <c r="H44" s="7">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="I44" s="7">
-        <v>261728</v>
+        <v>12867</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>852</v>
+        <v>933</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>410</v>
+        <v>934</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>853</v>
+        <v>194</v>
       </c>
       <c r="M44" s="7">
-        <v>612</v>
+        <v>24</v>
       </c>
       <c r="N44" s="7">
-        <v>641929</v>
+        <v>25196</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>854</v>
+        <v>935</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>757</v>
+        <v>936</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>855</v>
+        <v>937</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9818,63 +10772,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>301</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256133</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>300</v>
+      </c>
+      <c r="I45" s="7">
+        <v>398032</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>601</v>
+      </c>
+      <c r="N45" s="7">
+        <v>654166</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>200</v>
+      </c>
+      <c r="D46" s="7">
+        <v>217108</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H46" s="7">
+        <v>298</v>
+      </c>
+      <c r="I46" s="7">
+        <v>324104</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="M46" s="7">
+        <v>498</v>
+      </c>
+      <c r="N46" s="7">
+        <v>541213</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>535</v>
+      </c>
+      <c r="D47" s="7">
+        <v>553076</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="H47" s="7">
+        <v>739</v>
+      </c>
+      <c r="I47" s="7">
+        <v>793479</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1274</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1346555</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1241</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1306412</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1267</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1336665</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2508</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2643077</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>886</v>
+      </c>
+      <c r="D49" s="7">
+        <v>926188</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H49" s="7">
+        <v>771</v>
+      </c>
+      <c r="I49" s="7">
+        <v>818019</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1657</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1744207</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>358</v>
+      </c>
+      <c r="D50" s="7">
+        <v>380201</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="H50" s="7">
+        <v>254</v>
+      </c>
+      <c r="I50" s="7">
+        <v>261728</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="M50" s="7">
+        <v>612</v>
+      </c>
+      <c r="N50" s="7">
+        <v>641929</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3220</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3382985</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3329</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3533996</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6549</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6916981</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>322</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
